--- a/variances.xlsx
+++ b/variances.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zille_000\Dropbox\thesis\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zille_000\Documents\MEGA\thesis\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,13 +32,13 @@
     <t>variance</t>
   </si>
   <si>
-    <t>squared</t>
+    <t>belast 16 threads</t>
   </si>
   <si>
-    <t>c_2_3 stressed C_1Squared</t>
+    <t>experiment 1</t>
   </si>
   <si>
-    <t>belast 16 threads</t>
+    <t>experiment 2</t>
   </si>
 </sst>
 </file>
@@ -180,10 +180,10 @@
                   <c:v>belast 16 threads</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>squared</c:v>
+                  <c:v>experiment 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c_2_3 stressed C_1Squared</c:v>
+                  <c:v>experiment 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -220,11 +220,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="332706488"/>
-        <c:axId val="332707272"/>
+        <c:axId val="251363336"/>
+        <c:axId val="251364120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332706488"/>
+        <c:axId val="251363336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -267,7 +267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332707272"/>
+        <c:crossAx val="251364120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -275,7 +275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332707272"/>
+        <c:axId val="251364120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332706488"/>
+        <c:crossAx val="251363336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1219,7 +1219,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>0.25679999999999997</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>0.29430000000000001</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>0.25230000000000002</v>
